--- a/biology/Botanique/Polyscias_gracilis/Polyscias_gracilis.xlsx
+++ b/biology/Botanique/Polyscias_gracilis/Polyscias_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyscias gracilis, appelé communément bois papaye est un petit arbre endémique de l'île Maurice de la famille des Araliaceae et du genre Polyscias. Il croît dans les zones marécageuses. Cette espèce en voie d'exctinction possède quelques individus près des chutes de Tamarin et au Piton du Fouge.
 </t>
